--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:41:50+00:00</t>
+    <t>2023-02-10T06:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,25 +120,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
+  </si>
+  <si>
+    <t>DATE-TESTED-FOR-HIV</t>
+  </si>
+  <si>
+    <t>Date tested for HIV</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,15 +482,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:43+00:00</t>
+    <t>2023-02-10T13:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,19 +135,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>VL-RESULT</t>
   </si>
   <si>
     <t>HIV VL Test Result</t>
-  </si>
-  <si>
-    <t>DATE-TESTED-FOR-HIV</t>
-  </si>
-  <si>
-    <t>Date tested for HIV</t>
   </si>
 </sst>
 </file>
@@ -460,7 +451,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,27 +473,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:48:02+00:00</t>
+    <t>2023-02-10T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/hiv-test-date_fig-20/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
